--- a/TestFiles/sample1/words/word_2.xlsx
+++ b/TestFiles/sample1/words/word_2.xlsx
@@ -385,10 +385,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.4762681000000004</v>
+        <v>0.4762681</v>
       </c>
       <c r="B2">
-        <v>0.6599925000000004</v>
+        <v>0.6599925</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -396,10 +396,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.7080249000000003</v>
+        <v>0.7080248999999998</v>
       </c>
       <c r="B3">
-        <v>0.8038570000000003</v>
+        <v>0.8038569999999998</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -407,7 +407,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.9081187000000006</v>
+        <v>0.9081187000000002</v>
       </c>
       <c r="B4">
         <v>1.0118009</v>
